--- a/INTLINE/data/193/ABS/8731006.xlsx
+++ b/INTLINE/data/193/ABS/8731006.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A418368W">Data1!$B$1:$B$10,Data1!$B$11:$B$474</definedName>
-    <definedName name="A418368W_Data">Data1!$B$11:$B$474</definedName>
-    <definedName name="A418368W_Latest">Data1!$B$474</definedName>
-    <definedName name="A418371K">Data1!$I$1:$I$10,Data1!$I$11:$I$474</definedName>
-    <definedName name="A418371K_Data">Data1!$I$11:$I$474</definedName>
-    <definedName name="A418371K_Latest">Data1!$I$474</definedName>
-    <definedName name="A418372L">Data1!$P$1:$P$10,Data1!$P$11:$P$474</definedName>
-    <definedName name="A418372L_Data">Data1!$P$11:$P$474</definedName>
-    <definedName name="A418372L_Latest">Data1!$P$474</definedName>
-    <definedName name="A418427K">Data1!$C$1:$C$10,Data1!$C$11:$C$474</definedName>
-    <definedName name="A418427K_Data">Data1!$C$11:$C$474</definedName>
-    <definedName name="A418427K_Latest">Data1!$C$474</definedName>
-    <definedName name="A418431A">Data1!$J$1:$J$10,Data1!$J$11:$J$474</definedName>
-    <definedName name="A418431A_Data">Data1!$J$11:$J$474</definedName>
-    <definedName name="A418431A_Latest">Data1!$J$474</definedName>
-    <definedName name="A418433F">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$474</definedName>
-    <definedName name="A418433F_Data">Data1!$Q$11:$Q$474</definedName>
-    <definedName name="A418433F_Latest">Data1!$Q$474</definedName>
-    <definedName name="A421204K">Data1!$D$1:$D$10,Data1!$D$11:$D$474</definedName>
-    <definedName name="A421204K_Data">Data1!$D$11:$D$474</definedName>
-    <definedName name="A421204K_Latest">Data1!$D$474</definedName>
-    <definedName name="A421207T">Data1!$K$1:$K$10,Data1!$K$11:$K$474</definedName>
-    <definedName name="A421207T_Data">Data1!$K$11:$K$474</definedName>
-    <definedName name="A421207T_Latest">Data1!$K$474</definedName>
-    <definedName name="A421208V">Data1!$R$1:$R$10,Data1!$R$11:$R$474</definedName>
-    <definedName name="A421208V_Data">Data1!$R$11:$R$474</definedName>
-    <definedName name="A421208V_Latest">Data1!$R$474</definedName>
-    <definedName name="A421262J">Data1!$E$1:$E$10,Data1!$E$11:$E$474</definedName>
-    <definedName name="A421262J_Data">Data1!$E$11:$E$474</definedName>
-    <definedName name="A421262J_Latest">Data1!$E$474</definedName>
-    <definedName name="A421265R">Data1!$L$1:$L$10,Data1!$L$11:$L$474</definedName>
-    <definedName name="A421265R_Data">Data1!$L$11:$L$474</definedName>
-    <definedName name="A421265R_Latest">Data1!$L$474</definedName>
-    <definedName name="A421266T">Data1!$S$1:$S$10,Data1!$S$11:$S$474</definedName>
-    <definedName name="A421266T_Data">Data1!$S$11:$S$474</definedName>
-    <definedName name="A421266T_Latest">Data1!$S$474</definedName>
-    <definedName name="A422000A">Data1!$F$1:$F$10,Data1!$F$11:$F$474</definedName>
-    <definedName name="A422000A_Data">Data1!$F$11:$F$474</definedName>
-    <definedName name="A422000A_Latest">Data1!$F$474</definedName>
-    <definedName name="A422006R">Data1!$M$1:$M$10,Data1!$M$11:$M$474</definedName>
-    <definedName name="A422006R_Data">Data1!$M$11:$M$474</definedName>
-    <definedName name="A422006R_Latest">Data1!$M$474</definedName>
-    <definedName name="A422007T">Data1!$T$1:$T$10,Data1!$T$11:$T$474</definedName>
-    <definedName name="A422007T_Data">Data1!$T$11:$T$474</definedName>
-    <definedName name="A422007T_Latest">Data1!$T$474</definedName>
-    <definedName name="A422032V">Data1!$G$1:$G$10,Data1!$G$11:$G$474</definedName>
-    <definedName name="A422032V_Data">Data1!$G$11:$G$474</definedName>
-    <definedName name="A422032V_Latest">Data1!$G$474</definedName>
-    <definedName name="A422038J">Data1!$N$1:$N$10,Data1!$N$11:$N$474</definedName>
-    <definedName name="A422038J_Data">Data1!$N$11:$N$474</definedName>
-    <definedName name="A422038J_Latest">Data1!$N$474</definedName>
-    <definedName name="A422039K">Data1!$U$1:$U$10,Data1!$U$11:$U$474</definedName>
-    <definedName name="A422039K_Data">Data1!$U$11:$U$474</definedName>
-    <definedName name="A422039K_Latest">Data1!$U$474</definedName>
-    <definedName name="A422064L">Data1!$H$1:$H$10,Data1!$H$11:$H$474</definedName>
-    <definedName name="A422064L_Data">Data1!$H$11:$H$474</definedName>
-    <definedName name="A422064L_Latest">Data1!$H$474</definedName>
-    <definedName name="A422070J">Data1!$O$1:$O$10,Data1!$O$11:$O$474</definedName>
-    <definedName name="A422070J_Data">Data1!$O$11:$O$474</definedName>
-    <definedName name="A422070J_Latest">Data1!$O$474</definedName>
-    <definedName name="A422072L">Data1!$V$1:$V$10,Data1!$V$11:$V$474</definedName>
-    <definedName name="A422072L_Data">Data1!$V$11:$V$474</definedName>
-    <definedName name="A422072L_Latest">Data1!$V$474</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$474</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$474</definedName>
+    <definedName name="A418368W">Data1!$B$1:$B$10,Data1!$B$11:$B$476</definedName>
+    <definedName name="A418368W_Data">Data1!$B$11:$B$476</definedName>
+    <definedName name="A418368W_Latest">Data1!$B$476</definedName>
+    <definedName name="A418371K">Data1!$I$1:$I$10,Data1!$I$11:$I$476</definedName>
+    <definedName name="A418371K_Data">Data1!$I$11:$I$476</definedName>
+    <definedName name="A418371K_Latest">Data1!$I$476</definedName>
+    <definedName name="A418372L">Data1!$P$1:$P$10,Data1!$P$11:$P$476</definedName>
+    <definedName name="A418372L_Data">Data1!$P$11:$P$476</definedName>
+    <definedName name="A418372L_Latest">Data1!$P$476</definedName>
+    <definedName name="A418427K">Data1!$C$1:$C$10,Data1!$C$11:$C$476</definedName>
+    <definedName name="A418427K_Data">Data1!$C$11:$C$476</definedName>
+    <definedName name="A418427K_Latest">Data1!$C$476</definedName>
+    <definedName name="A418431A">Data1!$J$1:$J$10,Data1!$J$11:$J$476</definedName>
+    <definedName name="A418431A_Data">Data1!$J$11:$J$476</definedName>
+    <definedName name="A418431A_Latest">Data1!$J$476</definedName>
+    <definedName name="A418433F">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$476</definedName>
+    <definedName name="A418433F_Data">Data1!$Q$11:$Q$476</definedName>
+    <definedName name="A418433F_Latest">Data1!$Q$476</definedName>
+    <definedName name="A421204K">Data1!$D$1:$D$10,Data1!$D$11:$D$476</definedName>
+    <definedName name="A421204K_Data">Data1!$D$11:$D$476</definedName>
+    <definedName name="A421204K_Latest">Data1!$D$476</definedName>
+    <definedName name="A421207T">Data1!$K$1:$K$10,Data1!$K$11:$K$476</definedName>
+    <definedName name="A421207T_Data">Data1!$K$11:$K$476</definedName>
+    <definedName name="A421207T_Latest">Data1!$K$476</definedName>
+    <definedName name="A421208V">Data1!$R$1:$R$10,Data1!$R$11:$R$476</definedName>
+    <definedName name="A421208V_Data">Data1!$R$11:$R$476</definedName>
+    <definedName name="A421208V_Latest">Data1!$R$476</definedName>
+    <definedName name="A421262J">Data1!$E$1:$E$10,Data1!$E$11:$E$476</definedName>
+    <definedName name="A421262J_Data">Data1!$E$11:$E$476</definedName>
+    <definedName name="A421262J_Latest">Data1!$E$476</definedName>
+    <definedName name="A421265R">Data1!$L$1:$L$10,Data1!$L$11:$L$476</definedName>
+    <definedName name="A421265R_Data">Data1!$L$11:$L$476</definedName>
+    <definedName name="A421265R_Latest">Data1!$L$476</definedName>
+    <definedName name="A421266T">Data1!$S$1:$S$10,Data1!$S$11:$S$476</definedName>
+    <definedName name="A421266T_Data">Data1!$S$11:$S$476</definedName>
+    <definedName name="A421266T_Latest">Data1!$S$476</definedName>
+    <definedName name="A422000A">Data1!$F$1:$F$10,Data1!$F$11:$F$476</definedName>
+    <definedName name="A422000A_Data">Data1!$F$11:$F$476</definedName>
+    <definedName name="A422000A_Latest">Data1!$F$476</definedName>
+    <definedName name="A422006R">Data1!$M$1:$M$10,Data1!$M$11:$M$476</definedName>
+    <definedName name="A422006R_Data">Data1!$M$11:$M$476</definedName>
+    <definedName name="A422006R_Latest">Data1!$M$476</definedName>
+    <definedName name="A422007T">Data1!$T$1:$T$10,Data1!$T$11:$T$476</definedName>
+    <definedName name="A422007T_Data">Data1!$T$11:$T$476</definedName>
+    <definedName name="A422007T_Latest">Data1!$T$476</definedName>
+    <definedName name="A422032V">Data1!$G$1:$G$10,Data1!$G$11:$G$476</definedName>
+    <definedName name="A422032V_Data">Data1!$G$11:$G$476</definedName>
+    <definedName name="A422032V_Latest">Data1!$G$476</definedName>
+    <definedName name="A422038J">Data1!$N$1:$N$10,Data1!$N$11:$N$476</definedName>
+    <definedName name="A422038J_Data">Data1!$N$11:$N$476</definedName>
+    <definedName name="A422038J_Latest">Data1!$N$476</definedName>
+    <definedName name="A422039K">Data1!$U$1:$U$10,Data1!$U$11:$U$476</definedName>
+    <definedName name="A422039K_Data">Data1!$U$11:$U$476</definedName>
+    <definedName name="A422039K_Latest">Data1!$U$476</definedName>
+    <definedName name="A422064L">Data1!$H$1:$H$10,Data1!$H$11:$H$476</definedName>
+    <definedName name="A422064L_Data">Data1!$H$11:$H$476</definedName>
+    <definedName name="A422064L_Latest">Data1!$H$476</definedName>
+    <definedName name="A422070J">Data1!$O$1:$O$10,Data1!$O$11:$O$476</definedName>
+    <definedName name="A422070J_Data">Data1!$O$11:$O$476</definedName>
+    <definedName name="A422070J_Latest">Data1!$O$476</definedName>
+    <definedName name="A422072L">Data1!$V$1:$V$10,Data1!$V$11:$V$476</definedName>
+    <definedName name="A422072L_Data">Data1!$V$11:$V$476</definedName>
+    <definedName name="A422072L_Latest">Data1!$V$476</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$476</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$476</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -42338,6 +42338,188 @@
       </text>
     </comment>
     <comment ref="V474" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V475" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U476" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V476" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43213,10 +43395,10 @@
         <v>30498</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
@@ -43245,10 +43427,10 @@
         <v>30498</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -43277,10 +43459,10 @@
         <v>30498</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -43309,10 +43491,10 @@
         <v>30498</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -43341,10 +43523,10 @@
         <v>30498</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>16</v>
@@ -43373,10 +43555,10 @@
         <v>30498</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>16</v>
@@ -43405,10 +43587,10 @@
         <v>30498</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>16</v>
@@ -43437,10 +43619,10 @@
         <v>30498</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>16</v>
@@ -43469,10 +43651,10 @@
         <v>30498</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>16</v>
@@ -43501,10 +43683,10 @@
         <v>30498</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>16</v>
@@ -43533,10 +43715,10 @@
         <v>30498</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
@@ -43565,10 +43747,10 @@
         <v>30498</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>16</v>
@@ -43597,10 +43779,10 @@
         <v>30498</v>
       </c>
       <c r="G24" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>16</v>
@@ -43629,10 +43811,10 @@
         <v>30498</v>
       </c>
       <c r="G25" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>16</v>
@@ -43661,10 +43843,10 @@
         <v>30498</v>
       </c>
       <c r="G26" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>16</v>
@@ -43693,10 +43875,10 @@
         <v>30498</v>
       </c>
       <c r="G27" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>16</v>
@@ -43725,10 +43907,10 @@
         <v>30498</v>
       </c>
       <c r="G28" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>16</v>
@@ -43757,10 +43939,10 @@
         <v>30498</v>
       </c>
       <c r="G29" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>16</v>
@@ -43789,10 +43971,10 @@
         <v>30498</v>
       </c>
       <c r="G30" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>16</v>
@@ -43821,10 +44003,10 @@
         <v>30498</v>
       </c>
       <c r="G31" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>16</v>
@@ -43853,10 +44035,10 @@
         <v>30498</v>
       </c>
       <c r="G32" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H32" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>16</v>
@@ -43912,7 +44094,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V474"/>
+  <dimension ref="A1:V476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -44404,67 +44586,67 @@
         <v>13</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="V8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -44472,67 +44654,67 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="R9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="S9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="U9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="V9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -61162,7 +61344,7 @@
         <v>2032</v>
       </c>
       <c r="L317" s="8">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="M317" s="8">
         <v>9238</v>
@@ -61270,7 +61452,7 @@
         <v>2876</v>
       </c>
       <c r="L319" s="8">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="M319" s="8">
         <v>10447</v>
@@ -61375,13 +61557,13 @@
         <v>8417</v>
       </c>
       <c r="K321" s="8">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="L321" s="8">
         <v>2449</v>
       </c>
       <c r="M321" s="8">
-        <v>10238</v>
+        <v>10239</v>
       </c>
       <c r="N321" s="8">
         <v>627</v>
@@ -61549,7 +61731,7 @@
         <v>723</v>
       </c>
       <c r="O324" s="8">
-        <v>12779</v>
+        <v>12778</v>
       </c>
       <c r="P324" s="8"/>
       <c r="Q324" s="8"/>
@@ -61603,7 +61785,7 @@
         <v>664</v>
       </c>
       <c r="O325" s="8">
-        <v>14095</v>
+        <v>14094</v>
       </c>
       <c r="P325" s="8"/>
       <c r="Q325" s="8"/>
@@ -61807,19 +61989,19 @@
         <v>10194</v>
       </c>
       <c r="K329" s="8">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="L329" s="8">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="M329" s="8">
-        <v>13204</v>
+        <v>13206</v>
       </c>
       <c r="N329" s="8">
         <v>1789</v>
       </c>
       <c r="O329" s="8">
-        <v>14993</v>
+        <v>14994</v>
       </c>
       <c r="P329" s="8"/>
       <c r="Q329" s="8"/>
@@ -61918,10 +62100,10 @@
         <v>4771</v>
       </c>
       <c r="L331" s="8">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="M331" s="8">
-        <v>14700</v>
+        <v>14699</v>
       </c>
       <c r="N331" s="8">
         <v>2285</v>
@@ -61972,16 +62154,16 @@
         <v>4769</v>
       </c>
       <c r="L332" s="8">
-        <v>5995</v>
+        <v>5996</v>
       </c>
       <c r="M332" s="8">
-        <v>14369</v>
+        <v>14370</v>
       </c>
       <c r="N332" s="8">
         <v>1645</v>
       </c>
       <c r="O332" s="8">
-        <v>16014</v>
+        <v>16015</v>
       </c>
       <c r="P332" s="8"/>
       <c r="Q332" s="8"/>
@@ -62023,19 +62205,19 @@
         <v>9571</v>
       </c>
       <c r="K333" s="8">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="L333" s="8">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="M333" s="8">
-        <v>13627</v>
+        <v>13626</v>
       </c>
       <c r="N333" s="8">
         <v>1303</v>
       </c>
       <c r="O333" s="8">
-        <v>14930</v>
+        <v>14929</v>
       </c>
       <c r="P333" s="8"/>
       <c r="Q333" s="8"/>
@@ -62089,7 +62271,7 @@
         <v>783</v>
       </c>
       <c r="O334" s="8">
-        <v>14615</v>
+        <v>14614</v>
       </c>
       <c r="P334" s="8"/>
       <c r="Q334" s="8"/>
@@ -62131,10 +62313,10 @@
         <v>9130</v>
       </c>
       <c r="K335" s="8">
-        <v>5463</v>
+        <v>5464</v>
       </c>
       <c r="L335" s="8">
-        <v>6280</v>
+        <v>6281</v>
       </c>
       <c r="M335" s="8">
         <v>14364</v>
@@ -62143,7 +62325,7 @@
         <v>1046</v>
       </c>
       <c r="O335" s="8">
-        <v>15410</v>
+        <v>15411</v>
       </c>
       <c r="P335" s="8"/>
       <c r="Q335" s="8"/>
@@ -62185,10 +62367,10 @@
         <v>8872</v>
       </c>
       <c r="K336" s="8">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="L336" s="8">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="M336" s="8">
         <v>13951</v>
@@ -62245,7 +62427,7 @@
         <v>5187</v>
       </c>
       <c r="M337" s="8">
-        <v>13149</v>
+        <v>13148</v>
       </c>
       <c r="N337" s="8">
         <v>753</v>
@@ -62293,19 +62475,19 @@
         <v>8805</v>
       </c>
       <c r="K338" s="8">
-        <v>6084</v>
+        <v>6085</v>
       </c>
       <c r="L338" s="8">
-        <v>6505</v>
+        <v>6506</v>
       </c>
       <c r="M338" s="8">
-        <v>14641</v>
+        <v>14642</v>
       </c>
       <c r="N338" s="8">
         <v>670</v>
       </c>
       <c r="O338" s="8">
-        <v>15310</v>
+        <v>15311</v>
       </c>
       <c r="P338" s="8"/>
       <c r="Q338" s="8"/>
@@ -62407,7 +62589,7 @@
         <v>6524</v>
       </c>
       <c r="M340" s="8">
-        <v>14431</v>
+        <v>14432</v>
       </c>
       <c r="N340" s="8">
         <v>714</v>
@@ -62458,7 +62640,7 @@
         <v>4458</v>
       </c>
       <c r="L341" s="8">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="M341" s="8">
         <v>12784</v>
@@ -62617,19 +62799,19 @@
         <v>8204</v>
       </c>
       <c r="K344" s="8">
-        <v>5436</v>
+        <v>5437</v>
       </c>
       <c r="L344" s="8">
-        <v>5584</v>
+        <v>5586</v>
       </c>
       <c r="M344" s="8">
-        <v>13533</v>
+        <v>13535</v>
       </c>
       <c r="N344" s="8">
         <v>254</v>
       </c>
       <c r="O344" s="8">
-        <v>13788</v>
+        <v>13789</v>
       </c>
       <c r="P344" s="8"/>
       <c r="Q344" s="8"/>
@@ -62677,7 +62859,7 @@
         <v>4635</v>
       </c>
       <c r="M345" s="8">
-        <v>12467</v>
+        <v>12466</v>
       </c>
       <c r="N345" s="8">
         <v>289</v>
@@ -62725,19 +62907,19 @@
         <v>8184</v>
       </c>
       <c r="K346" s="8">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="L346" s="8">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="M346" s="8">
-        <v>12402</v>
+        <v>12401</v>
       </c>
       <c r="N346" s="8">
         <v>370</v>
       </c>
       <c r="O346" s="8">
-        <v>12772</v>
+        <v>12771</v>
       </c>
       <c r="P346" s="8"/>
       <c r="Q346" s="8"/>
@@ -62779,19 +62961,19 @@
         <v>7750</v>
       </c>
       <c r="K347" s="8">
-        <v>4929</v>
+        <v>4931</v>
       </c>
       <c r="L347" s="8">
-        <v>5355</v>
+        <v>5356</v>
       </c>
       <c r="M347" s="8">
-        <v>12580</v>
+        <v>12582</v>
       </c>
       <c r="N347" s="8">
         <v>525</v>
       </c>
       <c r="O347" s="8">
-        <v>13105</v>
+        <v>13106</v>
       </c>
       <c r="P347" s="8"/>
       <c r="Q347" s="8"/>
@@ -62836,16 +63018,16 @@
         <v>6630</v>
       </c>
       <c r="L348" s="8">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="M348" s="8">
-        <v>14398</v>
+        <v>14397</v>
       </c>
       <c r="N348" s="8">
         <v>418</v>
       </c>
       <c r="O348" s="8">
-        <v>14816</v>
+        <v>14815</v>
       </c>
       <c r="P348" s="8"/>
       <c r="Q348" s="8"/>
@@ -62887,19 +63069,19 @@
         <v>7886</v>
       </c>
       <c r="K349" s="8">
-        <v>4311</v>
+        <v>4313</v>
       </c>
       <c r="L349" s="8">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="M349" s="8">
-        <v>12073</v>
+        <v>12074</v>
       </c>
       <c r="N349" s="8">
         <v>246</v>
       </c>
       <c r="O349" s="8">
-        <v>12319</v>
+        <v>12320</v>
       </c>
       <c r="P349" s="8"/>
       <c r="Q349" s="8"/>
@@ -62941,19 +63123,19 @@
         <v>7377</v>
       </c>
       <c r="K350" s="8">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="L350" s="8">
         <v>3954</v>
       </c>
       <c r="M350" s="8">
-        <v>11131</v>
+        <v>11130</v>
       </c>
       <c r="N350" s="8">
         <v>200</v>
       </c>
       <c r="O350" s="8">
-        <v>11331</v>
+        <v>11330</v>
       </c>
       <c r="P350" s="8"/>
       <c r="Q350" s="8"/>
@@ -63049,19 +63231,19 @@
         <v>7758</v>
       </c>
       <c r="K352" s="8">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="L352" s="8">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="M352" s="8">
-        <v>11641</v>
+        <v>11642</v>
       </c>
       <c r="N352" s="8">
         <v>137</v>
       </c>
       <c r="O352" s="8">
-        <v>11778</v>
+        <v>11779</v>
       </c>
       <c r="P352" s="8"/>
       <c r="Q352" s="8"/>
@@ -63169,7 +63351,7 @@
         <v>157</v>
       </c>
       <c r="O354" s="8">
-        <v>11789</v>
+        <v>11788</v>
       </c>
       <c r="P354" s="8"/>
       <c r="Q354" s="8"/>
@@ -63211,13 +63393,13 @@
         <v>7643</v>
       </c>
       <c r="K355" s="8">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="L355" s="8">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="M355" s="8">
-        <v>11537</v>
+        <v>11538</v>
       </c>
       <c r="N355" s="8">
         <v>181</v>
@@ -63373,19 +63555,19 @@
         <v>7411</v>
       </c>
       <c r="K358" s="8">
-        <v>7337</v>
+        <v>7338</v>
       </c>
       <c r="L358" s="8">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="M358" s="8">
-        <v>14610</v>
+        <v>14611</v>
       </c>
       <c r="N358" s="8">
         <v>217</v>
       </c>
       <c r="O358" s="8">
-        <v>14827</v>
+        <v>14828</v>
       </c>
       <c r="P358" s="8"/>
       <c r="Q358" s="8"/>
@@ -63589,19 +63771,19 @@
         <v>7912</v>
       </c>
       <c r="K362" s="8">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="L362" s="8">
-        <v>6337</v>
+        <v>6336</v>
       </c>
       <c r="M362" s="8">
-        <v>13783</v>
+        <v>13782</v>
       </c>
       <c r="N362" s="8">
         <v>466</v>
       </c>
       <c r="O362" s="8">
-        <v>14249</v>
+        <v>14248</v>
       </c>
       <c r="P362" s="8"/>
       <c r="Q362" s="8"/>
@@ -63643,10 +63825,10 @@
         <v>7860</v>
       </c>
       <c r="K363" s="8">
-        <v>5928</v>
+        <v>5929</v>
       </c>
       <c r="L363" s="8">
-        <v>6017</v>
+        <v>6018</v>
       </c>
       <c r="M363" s="8">
         <v>13631</v>
@@ -63655,7 +63837,7 @@
         <v>247</v>
       </c>
       <c r="O363" s="8">
-        <v>13877</v>
+        <v>13878</v>
       </c>
       <c r="P363" s="8"/>
       <c r="Q363" s="8"/>
@@ -63703,13 +63885,13 @@
         <v>6018</v>
       </c>
       <c r="M364" s="8">
-        <v>13685</v>
+        <v>13684</v>
       </c>
       <c r="N364" s="8">
         <v>210</v>
       </c>
       <c r="O364" s="8">
-        <v>13895</v>
+        <v>13894</v>
       </c>
       <c r="P364" s="8"/>
       <c r="Q364" s="8"/>
@@ -63751,10 +63933,10 @@
         <v>7960</v>
       </c>
       <c r="K365" s="8">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="L365" s="8">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="M365" s="8">
         <v>12565</v>
@@ -63865,7 +64047,7 @@
         <v>5204</v>
       </c>
       <c r="M367" s="8">
-        <v>13050</v>
+        <v>13051</v>
       </c>
       <c r="N367" s="8">
         <v>237</v>
@@ -63919,7 +64101,7 @@
         <v>6692</v>
       </c>
       <c r="M368" s="8">
-        <v>14622</v>
+        <v>14621</v>
       </c>
       <c r="N368" s="8">
         <v>307</v>
@@ -63967,13 +64149,13 @@
         <v>8497</v>
       </c>
       <c r="K369" s="8">
-        <v>5592</v>
+        <v>5593</v>
       </c>
       <c r="L369" s="8">
-        <v>5939</v>
+        <v>5940</v>
       </c>
       <c r="M369" s="8">
-        <v>13946</v>
+        <v>13947</v>
       </c>
       <c r="N369" s="8">
         <v>490</v>
@@ -64075,10 +64257,10 @@
         <v>8651</v>
       </c>
       <c r="K371" s="8">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="L371" s="8">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="M371" s="8">
         <v>14928</v>
@@ -64195,7 +64377,7 @@
         <v>272</v>
       </c>
       <c r="O373" s="8">
-        <v>18319</v>
+        <v>18318</v>
       </c>
       <c r="P373" s="8"/>
       <c r="Q373" s="8"/>
@@ -64243,7 +64425,7 @@
         <v>8738</v>
       </c>
       <c r="M374" s="8">
-        <v>17328</v>
+        <v>17327</v>
       </c>
       <c r="N374" s="8">
         <v>261</v>
@@ -64291,19 +64473,19 @@
         <v>9384</v>
       </c>
       <c r="K375" s="8">
-        <v>7746</v>
+        <v>7747</v>
       </c>
       <c r="L375" s="8">
-        <v>7903</v>
+        <v>7904</v>
       </c>
       <c r="M375" s="8">
-        <v>16993</v>
+        <v>16994</v>
       </c>
       <c r="N375" s="8">
         <v>294</v>
       </c>
       <c r="O375" s="8">
-        <v>17287</v>
+        <v>17288</v>
       </c>
       <c r="P375" s="8"/>
       <c r="Q375" s="8"/>
@@ -64351,7 +64533,7 @@
         <v>7761</v>
       </c>
       <c r="M376" s="8">
-        <v>16744</v>
+        <v>16743</v>
       </c>
       <c r="N376" s="8">
         <v>256</v>
@@ -64405,7 +64587,7 @@
         <v>7402</v>
       </c>
       <c r="M377" s="8">
-        <v>17519</v>
+        <v>17518</v>
       </c>
       <c r="N377" s="8">
         <v>311</v>
@@ -64573,7 +64755,7 @@
         <v>355</v>
       </c>
       <c r="O380" s="8">
-        <v>16407</v>
+        <v>16408</v>
       </c>
       <c r="P380" s="8"/>
       <c r="Q380" s="8"/>
@@ -64615,10 +64797,10 @@
         <v>9928</v>
       </c>
       <c r="K381" s="8">
-        <v>6833</v>
+        <v>6832</v>
       </c>
       <c r="L381" s="8">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="M381" s="8">
         <v>16591</v>
@@ -64627,7 +64809,7 @@
         <v>230</v>
       </c>
       <c r="O381" s="8">
-        <v>16821</v>
+        <v>16820</v>
       </c>
       <c r="P381" s="8"/>
       <c r="Q381" s="8"/>
@@ -64729,7 +64911,7 @@
         <v>7145</v>
       </c>
       <c r="M383" s="8">
-        <v>16797</v>
+        <v>16798</v>
       </c>
       <c r="N383" s="8">
         <v>240</v>
@@ -64789,7 +64971,7 @@
         <v>261</v>
       </c>
       <c r="O384" s="8">
-        <v>18584</v>
+        <v>18583</v>
       </c>
       <c r="P384" s="8"/>
       <c r="Q384" s="8"/>
@@ -64831,10 +65013,10 @@
         <v>9682</v>
       </c>
       <c r="K385" s="8">
-        <v>6604</v>
+        <v>6605</v>
       </c>
       <c r="L385" s="8">
-        <v>6701</v>
+        <v>6702</v>
       </c>
       <c r="M385" s="8">
         <v>16152</v>
@@ -64993,10 +65175,10 @@
         <v>9888</v>
       </c>
       <c r="K388" s="8">
-        <v>10207</v>
+        <v>10208</v>
       </c>
       <c r="L388" s="8">
-        <v>10457</v>
+        <v>10458</v>
       </c>
       <c r="M388" s="8">
         <v>19903</v>
@@ -65005,7 +65187,7 @@
         <v>443</v>
       </c>
       <c r="O388" s="8">
-        <v>20345</v>
+        <v>20346</v>
       </c>
       <c r="P388" s="8"/>
       <c r="Q388" s="8"/>
@@ -65047,19 +65229,19 @@
         <v>10091</v>
       </c>
       <c r="K389" s="8">
-        <v>9748</v>
+        <v>9745</v>
       </c>
       <c r="L389" s="8">
-        <v>9896</v>
+        <v>9893</v>
       </c>
       <c r="M389" s="8">
-        <v>19656</v>
+        <v>19652</v>
       </c>
       <c r="N389" s="8">
         <v>332</v>
       </c>
       <c r="O389" s="8">
-        <v>19987</v>
+        <v>19984</v>
       </c>
       <c r="P389" s="8"/>
       <c r="Q389" s="8"/>
@@ -65155,19 +65337,19 @@
         <v>9798</v>
       </c>
       <c r="K391" s="8">
-        <v>10790</v>
+        <v>10791</v>
       </c>
       <c r="L391" s="8">
-        <v>10960</v>
+        <v>10961</v>
       </c>
       <c r="M391" s="8">
-        <v>20437</v>
+        <v>20438</v>
       </c>
       <c r="N391" s="8">
         <v>321</v>
       </c>
       <c r="O391" s="8">
-        <v>20758</v>
+        <v>20759</v>
       </c>
       <c r="P391" s="8"/>
       <c r="Q391" s="8"/>
@@ -65263,19 +65445,19 @@
         <v>9680</v>
       </c>
       <c r="K393" s="8">
-        <v>11064</v>
+        <v>11063</v>
       </c>
       <c r="L393" s="8">
-        <v>11227</v>
+        <v>11226</v>
       </c>
       <c r="M393" s="8">
-        <v>20613</v>
+        <v>20612</v>
       </c>
       <c r="N393" s="8">
         <v>293</v>
       </c>
       <c r="O393" s="8">
-        <v>20907</v>
+        <v>20906</v>
       </c>
       <c r="P393" s="8"/>
       <c r="Q393" s="8"/>
@@ -65323,7 +65505,7 @@
         <v>9265</v>
       </c>
       <c r="M394" s="8">
-        <v>18965</v>
+        <v>18966</v>
       </c>
       <c r="N394" s="8">
         <v>340</v>
@@ -65383,7 +65565,7 @@
         <v>899</v>
       </c>
       <c r="O395" s="8">
-        <v>19776</v>
+        <v>19775</v>
       </c>
       <c r="P395" s="8"/>
       <c r="Q395" s="8"/>
@@ -65479,19 +65661,19 @@
         <v>9892</v>
       </c>
       <c r="K397" s="8">
-        <v>10254</v>
+        <v>10256</v>
       </c>
       <c r="L397" s="8">
-        <v>10410</v>
+        <v>10412</v>
       </c>
       <c r="M397" s="8">
-        <v>20035</v>
+        <v>20037</v>
       </c>
       <c r="N397" s="8">
         <v>268</v>
       </c>
       <c r="O397" s="8">
-        <v>20303</v>
+        <v>20304</v>
       </c>
       <c r="P397" s="8"/>
       <c r="Q397" s="8"/>
@@ -65533,19 +65715,19 @@
         <v>9808</v>
       </c>
       <c r="K398" s="8">
-        <v>11563</v>
+        <v>11560</v>
       </c>
       <c r="L398" s="8">
-        <v>11715</v>
+        <v>11712</v>
       </c>
       <c r="M398" s="8">
-        <v>21288</v>
+        <v>21284</v>
       </c>
       <c r="N398" s="8">
         <v>235</v>
       </c>
       <c r="O398" s="8">
-        <v>21523</v>
+        <v>21519</v>
       </c>
       <c r="P398" s="8"/>
       <c r="Q398" s="8"/>
@@ -65641,19 +65823,19 @@
         <v>10282</v>
       </c>
       <c r="K400" s="8">
-        <v>9861</v>
+        <v>9863</v>
       </c>
       <c r="L400" s="8">
-        <v>9927</v>
+        <v>9929</v>
       </c>
       <c r="M400" s="8">
-        <v>20043</v>
+        <v>20044</v>
       </c>
       <c r="N400" s="8">
         <v>166</v>
       </c>
       <c r="O400" s="8">
-        <v>20209</v>
+        <v>20211</v>
       </c>
       <c r="P400" s="8"/>
       <c r="Q400" s="8"/>
@@ -65695,19 +65877,19 @@
         <v>9905</v>
       </c>
       <c r="K401" s="8">
-        <v>8854</v>
+        <v>8850</v>
       </c>
       <c r="L401" s="8">
-        <v>9094</v>
+        <v>9090</v>
       </c>
       <c r="M401" s="8">
-        <v>18705</v>
+        <v>18701</v>
       </c>
       <c r="N401" s="8">
         <v>294</v>
       </c>
       <c r="O401" s="8">
-        <v>18999</v>
+        <v>18995</v>
       </c>
       <c r="P401" s="8"/>
       <c r="Q401" s="8"/>
@@ -65803,19 +65985,19 @@
         <v>10252</v>
       </c>
       <c r="K403" s="8">
-        <v>10206</v>
+        <v>10213</v>
       </c>
       <c r="L403" s="8">
-        <v>10319</v>
+        <v>10326</v>
       </c>
       <c r="M403" s="8">
-        <v>20368</v>
+        <v>20375</v>
       </c>
       <c r="N403" s="8">
         <v>203</v>
       </c>
       <c r="O403" s="8">
-        <v>20572</v>
+        <v>20578</v>
       </c>
       <c r="P403" s="8"/>
       <c r="Q403" s="8"/>
@@ -65857,19 +66039,19 @@
         <v>10130</v>
       </c>
       <c r="K404" s="8">
-        <v>10649</v>
+        <v>10644</v>
       </c>
       <c r="L404" s="8">
-        <v>10707</v>
+        <v>10702</v>
       </c>
       <c r="M404" s="8">
-        <v>20633</v>
+        <v>20629</v>
       </c>
       <c r="N404" s="8">
         <v>203</v>
       </c>
       <c r="O404" s="8">
-        <v>20837</v>
+        <v>20832</v>
       </c>
       <c r="P404" s="8"/>
       <c r="Q404" s="8"/>
@@ -65911,19 +66093,19 @@
         <v>10157</v>
       </c>
       <c r="K405" s="8">
-        <v>9871</v>
+        <v>9872</v>
       </c>
       <c r="L405" s="8">
-        <v>10032</v>
+        <v>10033</v>
       </c>
       <c r="M405" s="8">
-        <v>19876</v>
+        <v>19878</v>
       </c>
       <c r="N405" s="8">
         <v>312</v>
       </c>
       <c r="O405" s="8">
-        <v>20188</v>
+        <v>20189</v>
       </c>
       <c r="P405" s="8"/>
       <c r="Q405" s="8"/>
@@ -65965,19 +66147,19 @@
         <v>9716</v>
       </c>
       <c r="K406" s="8">
-        <v>8709</v>
+        <v>8714</v>
       </c>
       <c r="L406" s="8">
-        <v>8771</v>
+        <v>8776</v>
       </c>
       <c r="M406" s="8">
-        <v>18292</v>
+        <v>18297</v>
       </c>
       <c r="N406" s="8">
         <v>194</v>
       </c>
       <c r="O406" s="8">
-        <v>18487</v>
+        <v>18491</v>
       </c>
       <c r="P406" s="8"/>
       <c r="Q406" s="8"/>
@@ -66019,19 +66201,19 @@
         <v>9732</v>
       </c>
       <c r="K407" s="8">
-        <v>11644</v>
+        <v>11641</v>
       </c>
       <c r="L407" s="8">
-        <v>11764</v>
+        <v>11761</v>
       </c>
       <c r="M407" s="8">
-        <v>21237</v>
+        <v>21234</v>
       </c>
       <c r="N407" s="8">
         <v>258</v>
       </c>
       <c r="O407" s="8">
-        <v>21495</v>
+        <v>21493</v>
       </c>
       <c r="P407" s="8"/>
       <c r="Q407" s="8"/>
@@ -66073,19 +66255,19 @@
         <v>9892</v>
       </c>
       <c r="K408" s="8">
-        <v>11629</v>
+        <v>11631</v>
       </c>
       <c r="L408" s="8">
-        <v>11869</v>
+        <v>11871</v>
       </c>
       <c r="M408" s="8">
-        <v>21363</v>
+        <v>21365</v>
       </c>
       <c r="N408" s="8">
         <v>398</v>
       </c>
       <c r="O408" s="8">
-        <v>21761</v>
+        <v>21763</v>
       </c>
       <c r="P408" s="8"/>
       <c r="Q408" s="8"/>
@@ -66127,19 +66309,19 @@
         <v>9867</v>
       </c>
       <c r="K409" s="8">
-        <v>9285</v>
+        <v>9282</v>
       </c>
       <c r="L409" s="8">
-        <v>9350</v>
+        <v>9347</v>
       </c>
       <c r="M409" s="8">
-        <v>19051</v>
+        <v>19048</v>
       </c>
       <c r="N409" s="8">
         <v>167</v>
       </c>
       <c r="O409" s="8">
-        <v>19217</v>
+        <v>19214</v>
       </c>
       <c r="P409" s="8"/>
       <c r="Q409" s="8"/>
@@ -66235,19 +66417,19 @@
         <v>9771</v>
       </c>
       <c r="K411" s="8">
-        <v>8569</v>
+        <v>8574</v>
       </c>
       <c r="L411" s="8">
-        <v>8669</v>
+        <v>8674</v>
       </c>
       <c r="M411" s="8">
-        <v>18192</v>
+        <v>18197</v>
       </c>
       <c r="N411" s="8">
         <v>249</v>
       </c>
       <c r="O411" s="8">
-        <v>18440</v>
+        <v>18446</v>
       </c>
       <c r="P411" s="8"/>
       <c r="Q411" s="8"/>
@@ -66289,19 +66471,19 @@
         <v>9467</v>
       </c>
       <c r="K412" s="8">
-        <v>8834</v>
+        <v>8830</v>
       </c>
       <c r="L412" s="8">
-        <v>8875</v>
+        <v>8871</v>
       </c>
       <c r="M412" s="8">
-        <v>18197</v>
+        <v>18194</v>
       </c>
       <c r="N412" s="8">
         <v>144</v>
       </c>
       <c r="O412" s="8">
-        <v>18341</v>
+        <v>18338</v>
       </c>
       <c r="P412" s="8"/>
       <c r="Q412" s="8"/>
@@ -66343,19 +66525,19 @@
         <v>9302</v>
       </c>
       <c r="K413" s="8">
-        <v>7704</v>
+        <v>7706</v>
       </c>
       <c r="L413" s="8">
-        <v>7782</v>
+        <v>7784</v>
       </c>
       <c r="M413" s="8">
-        <v>16883</v>
+        <v>16886</v>
       </c>
       <c r="N413" s="8">
         <v>201</v>
       </c>
       <c r="O413" s="8">
-        <v>17084</v>
+        <v>17087</v>
       </c>
       <c r="P413" s="8"/>
       <c r="Q413" s="8"/>
@@ -66451,10 +66633,10 @@
         <v>9445</v>
       </c>
       <c r="K415" s="8">
-        <v>7038</v>
+        <v>7037</v>
       </c>
       <c r="L415" s="8">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="M415" s="8">
         <v>16360</v>
@@ -66505,13 +66687,13 @@
         <v>9547</v>
       </c>
       <c r="K416" s="8">
-        <v>8489</v>
+        <v>8488</v>
       </c>
       <c r="L416" s="8">
-        <v>8560</v>
+        <v>8559</v>
       </c>
       <c r="M416" s="8">
-        <v>17888</v>
+        <v>17887</v>
       </c>
       <c r="N416" s="8">
         <v>219</v>
@@ -66559,19 +66741,19 @@
         <v>9900</v>
       </c>
       <c r="K417" s="8">
-        <v>7005</v>
+        <v>7012</v>
       </c>
       <c r="L417" s="8">
-        <v>7031</v>
+        <v>7038</v>
       </c>
       <c r="M417" s="8">
-        <v>16774</v>
+        <v>16781</v>
       </c>
       <c r="N417" s="8">
         <v>157</v>
       </c>
       <c r="O417" s="8">
-        <v>16930</v>
+        <v>16938</v>
       </c>
       <c r="P417" s="8"/>
       <c r="Q417" s="8"/>
@@ -66613,19 +66795,19 @@
         <v>10102</v>
       </c>
       <c r="K418" s="8">
-        <v>8501</v>
+        <v>8495</v>
       </c>
       <c r="L418" s="8">
-        <v>8538</v>
+        <v>8532</v>
       </c>
       <c r="M418" s="8">
-        <v>18429</v>
+        <v>18424</v>
       </c>
       <c r="N418" s="8">
         <v>211</v>
       </c>
       <c r="O418" s="8">
-        <v>18640</v>
+        <v>18635</v>
       </c>
       <c r="P418" s="8"/>
       <c r="Q418" s="8"/>
@@ -66673,13 +66855,13 @@
         <v>8791</v>
       </c>
       <c r="M419" s="8">
-        <v>18648</v>
+        <v>18647</v>
       </c>
       <c r="N419" s="8">
         <v>467</v>
       </c>
       <c r="O419" s="8">
-        <v>19115</v>
+        <v>19114</v>
       </c>
       <c r="P419" s="8"/>
       <c r="Q419" s="8"/>
@@ -66721,19 +66903,19 @@
         <v>10225</v>
       </c>
       <c r="K420" s="8">
-        <v>8822</v>
+        <v>8827</v>
       </c>
       <c r="L420" s="8">
-        <v>8921</v>
+        <v>8926</v>
       </c>
       <c r="M420" s="8">
-        <v>18963</v>
+        <v>18969</v>
       </c>
       <c r="N420" s="8">
         <v>182</v>
       </c>
       <c r="O420" s="8">
-        <v>19146</v>
+        <v>19151</v>
       </c>
       <c r="P420" s="8"/>
       <c r="Q420" s="8"/>
@@ -66775,19 +66957,19 @@
         <v>10260</v>
       </c>
       <c r="K421" s="8">
-        <v>9331</v>
+        <v>9320</v>
       </c>
       <c r="L421" s="8">
-        <v>9453</v>
+        <v>9442</v>
       </c>
       <c r="M421" s="8">
-        <v>19469</v>
+        <v>19458</v>
       </c>
       <c r="N421" s="8">
         <v>245</v>
       </c>
       <c r="O421" s="8">
-        <v>19713</v>
+        <v>19702</v>
       </c>
       <c r="P421" s="8"/>
       <c r="Q421" s="8"/>
@@ -66829,19 +67011,19 @@
         <v>10311</v>
       </c>
       <c r="K422" s="8">
-        <v>9093</v>
+        <v>9097</v>
       </c>
       <c r="L422" s="8">
-        <v>9258</v>
+        <v>9262</v>
       </c>
       <c r="M422" s="8">
-        <v>19251</v>
+        <v>19255</v>
       </c>
       <c r="N422" s="8">
         <v>317</v>
       </c>
       <c r="O422" s="8">
-        <v>19568</v>
+        <v>19573</v>
       </c>
       <c r="P422" s="8"/>
       <c r="Q422" s="8"/>
@@ -66883,19 +67065,19 @@
         <v>10120</v>
       </c>
       <c r="K423" s="8">
-        <v>12928</v>
+        <v>12931</v>
       </c>
       <c r="L423" s="8">
-        <v>12981</v>
+        <v>12984</v>
       </c>
       <c r="M423" s="8">
-        <v>22941</v>
+        <v>22944</v>
       </c>
       <c r="N423" s="8">
         <v>160</v>
       </c>
       <c r="O423" s="8">
-        <v>23101</v>
+        <v>23105</v>
       </c>
       <c r="P423" s="8"/>
       <c r="Q423" s="8"/>
@@ -66937,19 +67119,19 @@
         <v>10365</v>
       </c>
       <c r="K424" s="8">
-        <v>7596</v>
+        <v>7592</v>
       </c>
       <c r="L424" s="8">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="M424" s="8">
-        <v>17859</v>
+        <v>17855</v>
       </c>
       <c r="N424" s="8">
         <v>164</v>
       </c>
       <c r="O424" s="8">
-        <v>18024</v>
+        <v>18020</v>
       </c>
       <c r="P424" s="8"/>
       <c r="Q424" s="8"/>
@@ -66991,19 +67173,19 @@
         <v>9994</v>
       </c>
       <c r="K425" s="8">
-        <v>9471</v>
+        <v>9475</v>
       </c>
       <c r="L425" s="8">
-        <v>9624</v>
+        <v>9628</v>
       </c>
       <c r="M425" s="8">
-        <v>19351</v>
+        <v>19355</v>
       </c>
       <c r="N425" s="8">
         <v>267</v>
       </c>
       <c r="O425" s="8">
-        <v>19618</v>
+        <v>19622</v>
       </c>
       <c r="P425" s="8"/>
       <c r="Q425" s="8"/>
@@ -67099,19 +67281,19 @@
         <v>10617</v>
       </c>
       <c r="K427" s="8">
-        <v>9022</v>
+        <v>9013</v>
       </c>
       <c r="L427" s="8">
-        <v>9073</v>
+        <v>9064</v>
       </c>
       <c r="M427" s="8">
-        <v>19538</v>
+        <v>19528</v>
       </c>
       <c r="N427" s="8">
         <v>153</v>
       </c>
       <c r="O427" s="8">
-        <v>19691</v>
+        <v>19681</v>
       </c>
       <c r="P427" s="8"/>
       <c r="Q427" s="8"/>
@@ -67153,19 +67335,19 @@
         <v>10791</v>
       </c>
       <c r="K428" s="8">
-        <v>7600</v>
+        <v>7603</v>
       </c>
       <c r="L428" s="8">
-        <v>7600</v>
+        <v>7603</v>
       </c>
       <c r="M428" s="8">
-        <v>18188</v>
+        <v>18191</v>
       </c>
       <c r="N428" s="8">
         <v>203</v>
       </c>
       <c r="O428" s="8">
-        <v>18391</v>
+        <v>18394</v>
       </c>
       <c r="P428" s="8"/>
       <c r="Q428" s="8"/>
@@ -67207,19 +67389,19 @@
         <v>9838</v>
       </c>
       <c r="K429" s="8">
-        <v>7978</v>
+        <v>7995</v>
       </c>
       <c r="L429" s="8">
-        <v>8027</v>
+        <v>8044</v>
       </c>
       <c r="M429" s="8">
-        <v>17709</v>
+        <v>17726</v>
       </c>
       <c r="N429" s="8">
         <v>156</v>
       </c>
       <c r="O429" s="8">
-        <v>17866</v>
+        <v>17883</v>
       </c>
       <c r="P429" s="8"/>
       <c r="Q429" s="8"/>
@@ -67261,19 +67443,19 @@
         <v>10335</v>
       </c>
       <c r="K430" s="8">
-        <v>8823</v>
+        <v>8806</v>
       </c>
       <c r="L430" s="8">
-        <v>9087</v>
+        <v>9070</v>
       </c>
       <c r="M430" s="8">
-        <v>19096</v>
+        <v>19080</v>
       </c>
       <c r="N430" s="8">
         <v>326</v>
       </c>
       <c r="O430" s="8">
-        <v>19422</v>
+        <v>19405</v>
       </c>
       <c r="P430" s="8"/>
       <c r="Q430" s="8"/>
@@ -67315,19 +67497,19 @@
         <v>10126</v>
       </c>
       <c r="K431" s="8">
-        <v>8027</v>
+        <v>8031</v>
       </c>
       <c r="L431" s="8">
-        <v>8209</v>
+        <v>8213</v>
       </c>
       <c r="M431" s="8">
-        <v>18070</v>
+        <v>18074</v>
       </c>
       <c r="N431" s="8">
         <v>265</v>
       </c>
       <c r="O431" s="8">
-        <v>18335</v>
+        <v>18339</v>
       </c>
       <c r="P431" s="8"/>
       <c r="Q431" s="8"/>
@@ -67369,10 +67551,10 @@
         <v>10058</v>
       </c>
       <c r="K432" s="8">
-        <v>6317</v>
+        <v>6316</v>
       </c>
       <c r="L432" s="8">
-        <v>6360</v>
+        <v>6359</v>
       </c>
       <c r="M432" s="8">
         <v>16267</v>
@@ -67381,7 +67563,7 @@
         <v>151</v>
       </c>
       <c r="O432" s="8">
-        <v>16418</v>
+        <v>16417</v>
       </c>
       <c r="P432" s="8"/>
       <c r="Q432" s="8"/>
@@ -67423,19 +67605,19 @@
         <v>9710</v>
       </c>
       <c r="K433" s="8">
-        <v>6828</v>
+        <v>6826</v>
       </c>
       <c r="L433" s="8">
-        <v>6969</v>
+        <v>6967</v>
       </c>
       <c r="M433" s="8">
-        <v>16364</v>
+        <v>16361</v>
       </c>
       <c r="N433" s="8">
         <v>316</v>
       </c>
       <c r="O433" s="8">
-        <v>16679</v>
+        <v>16677</v>
       </c>
       <c r="P433" s="8"/>
       <c r="Q433" s="8"/>
@@ -67477,19 +67659,19 @@
         <v>10143</v>
       </c>
       <c r="K434" s="8">
-        <v>6902</v>
+        <v>6908</v>
       </c>
       <c r="L434" s="8">
-        <v>7008</v>
+        <v>7014</v>
       </c>
       <c r="M434" s="8">
-        <v>16984</v>
+        <v>16990</v>
       </c>
       <c r="N434" s="8">
         <v>167</v>
       </c>
       <c r="O434" s="8">
-        <v>17151</v>
+        <v>17157</v>
       </c>
       <c r="P434" s="8"/>
       <c r="Q434" s="8"/>
@@ -67531,19 +67713,19 @@
         <v>9518</v>
       </c>
       <c r="K435" s="8">
-        <v>5629</v>
+        <v>5626</v>
       </c>
       <c r="L435" s="8">
-        <v>5665</v>
+        <v>5662</v>
       </c>
       <c r="M435" s="8">
-        <v>15050</v>
+        <v>15047</v>
       </c>
       <c r="N435" s="8">
         <v>133</v>
       </c>
       <c r="O435" s="8">
-        <v>15183</v>
+        <v>15180</v>
       </c>
       <c r="P435" s="8"/>
       <c r="Q435" s="8"/>
@@ -67585,19 +67767,19 @@
         <v>9270</v>
       </c>
       <c r="K436" s="8">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="L436" s="8">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="M436" s="8">
-        <v>14182</v>
+        <v>14180</v>
       </c>
       <c r="N436" s="8">
         <v>135</v>
       </c>
       <c r="O436" s="8">
-        <v>14317</v>
+        <v>14315</v>
       </c>
       <c r="P436" s="8"/>
       <c r="Q436" s="8"/>
@@ -67639,19 +67821,19 @@
         <v>9225</v>
       </c>
       <c r="K437" s="8">
-        <v>5219</v>
+        <v>5224</v>
       </c>
       <c r="L437" s="8">
-        <v>5345</v>
+        <v>5350</v>
       </c>
       <c r="M437" s="8">
-        <v>14375</v>
+        <v>14380</v>
       </c>
       <c r="N437" s="8">
         <v>195</v>
       </c>
       <c r="O437" s="8">
-        <v>14570</v>
+        <v>14575</v>
       </c>
       <c r="P437" s="8"/>
       <c r="Q437" s="8"/>
@@ -67747,19 +67929,19 @@
         <v>8783</v>
       </c>
       <c r="K439" s="8">
-        <v>6242</v>
+        <v>6233</v>
       </c>
       <c r="L439" s="8">
-        <v>6370</v>
+        <v>6361</v>
       </c>
       <c r="M439" s="8">
-        <v>14933</v>
+        <v>14925</v>
       </c>
       <c r="N439" s="8">
         <v>220</v>
       </c>
       <c r="O439" s="8">
-        <v>15153</v>
+        <v>15144</v>
       </c>
       <c r="P439" s="8"/>
       <c r="Q439" s="8"/>
@@ -67801,19 +67983,19 @@
         <v>8586</v>
       </c>
       <c r="K440" s="8">
-        <v>5687</v>
+        <v>5691</v>
       </c>
       <c r="L440" s="8">
-        <v>5764</v>
+        <v>5768</v>
       </c>
       <c r="M440" s="8">
-        <v>14216</v>
+        <v>14220</v>
       </c>
       <c r="N440" s="8">
         <v>135</v>
       </c>
       <c r="O440" s="8">
-        <v>14351</v>
+        <v>14354</v>
       </c>
       <c r="P440" s="8"/>
       <c r="Q440" s="8"/>
@@ -67909,19 +68091,19 @@
         <v>8858</v>
       </c>
       <c r="K442" s="8">
-        <v>5546</v>
+        <v>5542</v>
       </c>
       <c r="L442" s="8">
-        <v>5842</v>
+        <v>5838</v>
       </c>
       <c r="M442" s="8">
-        <v>14319</v>
+        <v>14315</v>
       </c>
       <c r="N442" s="8">
         <v>381</v>
       </c>
       <c r="O442" s="8">
-        <v>14699</v>
+        <v>14696</v>
       </c>
       <c r="P442" s="8"/>
       <c r="Q442" s="8"/>
@@ -67963,19 +68145,19 @@
         <v>8730</v>
       </c>
       <c r="K443" s="8">
-        <v>4455</v>
+        <v>4467</v>
       </c>
       <c r="L443" s="8">
-        <v>4617</v>
+        <v>4629</v>
       </c>
       <c r="M443" s="8">
-        <v>13054</v>
+        <v>13066</v>
       </c>
       <c r="N443" s="8">
         <v>293</v>
       </c>
       <c r="O443" s="8">
-        <v>13346</v>
+        <v>13359</v>
       </c>
       <c r="P443" s="8"/>
       <c r="Q443" s="8"/>
@@ -68017,19 +68199,19 @@
         <v>8558</v>
       </c>
       <c r="K444" s="8">
-        <v>5161</v>
+        <v>5153</v>
       </c>
       <c r="L444" s="8">
-        <v>5197</v>
+        <v>5189</v>
       </c>
       <c r="M444" s="8">
-        <v>13628</v>
+        <v>13620</v>
       </c>
       <c r="N444" s="8">
         <v>127</v>
       </c>
       <c r="O444" s="8">
-        <v>13754</v>
+        <v>13746</v>
       </c>
       <c r="P444" s="8"/>
       <c r="Q444" s="8"/>
@@ -68071,19 +68253,19 @@
         <v>8694</v>
       </c>
       <c r="K445" s="8">
-        <v>5776</v>
+        <v>5779</v>
       </c>
       <c r="L445" s="8">
-        <v>5852</v>
+        <v>5855</v>
       </c>
       <c r="M445" s="8">
-        <v>14398</v>
+        <v>14402</v>
       </c>
       <c r="N445" s="8">
         <v>148</v>
       </c>
       <c r="O445" s="8">
-        <v>14546</v>
+        <v>14550</v>
       </c>
       <c r="P445" s="8"/>
       <c r="Q445" s="8"/>
@@ -68125,19 +68307,19 @@
         <v>8161</v>
       </c>
       <c r="K446" s="8">
-        <v>5935</v>
+        <v>5945</v>
       </c>
       <c r="L446" s="8">
-        <v>6045</v>
+        <v>6055</v>
       </c>
       <c r="M446" s="8">
-        <v>14008</v>
+        <v>14019</v>
       </c>
       <c r="N446" s="8">
         <v>198</v>
       </c>
       <c r="O446" s="8">
-        <v>14206</v>
+        <v>14216</v>
       </c>
       <c r="P446" s="8"/>
       <c r="Q446" s="8"/>
@@ -68179,19 +68361,19 @@
         <v>8775</v>
       </c>
       <c r="K447" s="8">
-        <v>6063</v>
+        <v>6042</v>
       </c>
       <c r="L447" s="8">
-        <v>6138</v>
+        <v>6117</v>
       </c>
       <c r="M447" s="8">
-        <v>14730</v>
+        <v>14709</v>
       </c>
       <c r="N447" s="8">
         <v>183</v>
       </c>
       <c r="O447" s="8">
-        <v>14913</v>
+        <v>14892</v>
       </c>
       <c r="P447" s="8"/>
       <c r="Q447" s="8"/>
@@ -68233,19 +68415,19 @@
         <v>8795</v>
       </c>
       <c r="K448" s="8">
-        <v>7027</v>
+        <v>7033</v>
       </c>
       <c r="L448" s="8">
-        <v>7097</v>
+        <v>7103</v>
       </c>
       <c r="M448" s="8">
-        <v>15701</v>
+        <v>15707</v>
       </c>
       <c r="N448" s="8">
         <v>191</v>
       </c>
       <c r="O448" s="8">
-        <v>15892</v>
+        <v>15898</v>
       </c>
       <c r="P448" s="8"/>
       <c r="Q448" s="8"/>
@@ -68287,13 +68469,13 @@
         <v>8755</v>
       </c>
       <c r="K449" s="8">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="L449" s="8">
-        <v>4806</v>
+        <v>4807</v>
       </c>
       <c r="M449" s="8">
-        <v>13422</v>
+        <v>13423</v>
       </c>
       <c r="N449" s="8">
         <v>139</v>
@@ -68341,19 +68523,19 @@
         <v>8772</v>
       </c>
       <c r="K450" s="8">
-        <v>7361</v>
+        <v>7352</v>
       </c>
       <c r="L450" s="8">
-        <v>7486</v>
+        <v>7477</v>
       </c>
       <c r="M450" s="8">
-        <v>16076</v>
+        <v>16067</v>
       </c>
       <c r="N450" s="8">
         <v>182</v>
       </c>
       <c r="O450" s="8">
-        <v>16258</v>
+        <v>16249</v>
       </c>
       <c r="P450" s="8"/>
       <c r="Q450" s="8"/>
@@ -68395,19 +68577,19 @@
         <v>8748</v>
       </c>
       <c r="K451" s="8">
-        <v>6370</v>
+        <v>6376</v>
       </c>
       <c r="L451" s="8">
-        <v>6505</v>
+        <v>6511</v>
       </c>
       <c r="M451" s="8">
-        <v>15023</v>
+        <v>15029</v>
       </c>
       <c r="N451" s="8">
         <v>230</v>
       </c>
       <c r="O451" s="8">
-        <v>15253</v>
+        <v>15259</v>
       </c>
       <c r="P451" s="8"/>
       <c r="Q451" s="8"/>
@@ -68449,19 +68631,19 @@
         <v>9014</v>
       </c>
       <c r="K452" s="8">
-        <v>5944</v>
+        <v>5952</v>
       </c>
       <c r="L452" s="8">
-        <v>6169</v>
+        <v>6177</v>
       </c>
       <c r="M452" s="8">
-        <v>14812</v>
+        <v>14820</v>
       </c>
       <c r="N452" s="8">
         <v>371</v>
       </c>
       <c r="O452" s="8">
-        <v>15183</v>
+        <v>15192</v>
       </c>
       <c r="P452" s="8"/>
       <c r="Q452" s="8"/>
@@ -68503,19 +68685,19 @@
         <v>8905</v>
       </c>
       <c r="K453" s="8">
-        <v>4164</v>
+        <v>4154</v>
       </c>
       <c r="L453" s="8">
-        <v>4317</v>
+        <v>4307</v>
       </c>
       <c r="M453" s="8">
-        <v>12919</v>
+        <v>12909</v>
       </c>
       <c r="N453" s="8">
         <v>303</v>
       </c>
       <c r="O453" s="8">
-        <v>13222</v>
+        <v>13212</v>
       </c>
       <c r="P453" s="8"/>
       <c r="Q453" s="8"/>
@@ -68557,19 +68739,19 @@
         <v>8468</v>
       </c>
       <c r="K454" s="8">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="L454" s="8">
-        <v>4254</v>
+        <v>4258</v>
       </c>
       <c r="M454" s="8">
-        <v>12301</v>
+        <v>12305</v>
       </c>
       <c r="N454" s="8">
         <v>421</v>
       </c>
       <c r="O454" s="8">
-        <v>12722</v>
+        <v>12726</v>
       </c>
       <c r="P454" s="8"/>
       <c r="Q454" s="8"/>
@@ -68584,46 +68766,46 @@
         <v>44013</v>
       </c>
       <c r="B455" s="8">
-        <v>9917</v>
+        <v>9971</v>
       </c>
       <c r="C455" s="8">
-        <v>10054</v>
+        <v>10108</v>
       </c>
       <c r="D455" s="8">
-        <v>5487</v>
+        <v>5941</v>
       </c>
       <c r="E455" s="8">
-        <v>5689</v>
+        <v>6143</v>
       </c>
       <c r="F455" s="8">
-        <v>15404</v>
+        <v>15912</v>
       </c>
       <c r="G455" s="8">
         <v>339</v>
       </c>
       <c r="H455" s="8">
-        <v>15743</v>
+        <v>16251</v>
       </c>
       <c r="I455" s="8">
-        <v>9124</v>
+        <v>9174</v>
       </c>
       <c r="J455" s="8">
-        <v>9237</v>
+        <v>9287</v>
       </c>
       <c r="K455" s="8">
-        <v>5079</v>
+        <v>5534</v>
       </c>
       <c r="L455" s="8">
-        <v>5281</v>
+        <v>5736</v>
       </c>
       <c r="M455" s="8">
-        <v>14204</v>
+        <v>14708</v>
       </c>
       <c r="N455" s="8">
         <v>315</v>
       </c>
       <c r="O455" s="8">
-        <v>14519</v>
+        <v>15023</v>
       </c>
       <c r="P455" s="8"/>
       <c r="Q455" s="8"/>
@@ -68638,46 +68820,46 @@
         <v>44044</v>
       </c>
       <c r="B456" s="8">
-        <v>9658</v>
+        <v>9641</v>
       </c>
       <c r="C456" s="8">
-        <v>9752</v>
+        <v>9735</v>
       </c>
       <c r="D456" s="8">
-        <v>4389</v>
+        <v>4410</v>
       </c>
       <c r="E456" s="8">
-        <v>4473</v>
+        <v>4494</v>
       </c>
       <c r="F456" s="8">
-        <v>14047</v>
+        <v>14051</v>
       </c>
       <c r="G456" s="8">
         <v>178</v>
       </c>
       <c r="H456" s="8">
-        <v>14225</v>
+        <v>14229</v>
       </c>
       <c r="I456" s="8">
-        <v>9707</v>
+        <v>9690</v>
       </c>
       <c r="J456" s="8">
-        <v>9810</v>
+        <v>9793</v>
       </c>
       <c r="K456" s="8">
-        <v>4397</v>
+        <v>4415</v>
       </c>
       <c r="L456" s="8">
-        <v>4481</v>
+        <v>4499</v>
       </c>
       <c r="M456" s="8">
-        <v>14104</v>
+        <v>14105</v>
       </c>
       <c r="N456" s="8">
         <v>187</v>
       </c>
       <c r="O456" s="8">
-        <v>14291</v>
+        <v>14292</v>
       </c>
       <c r="P456" s="8"/>
       <c r="Q456" s="8"/>
@@ -68692,46 +68874,46 @@
         <v>44075</v>
       </c>
       <c r="B457" s="8">
-        <v>11117</v>
+        <v>11090</v>
       </c>
       <c r="C457" s="8">
-        <v>11309</v>
+        <v>11282</v>
       </c>
       <c r="D457" s="8">
-        <v>5316</v>
+        <v>5346</v>
       </c>
       <c r="E457" s="8">
-        <v>5480</v>
+        <v>5510</v>
       </c>
       <c r="F457" s="8">
-        <v>16433</v>
+        <v>16436</v>
       </c>
       <c r="G457" s="8">
         <v>356</v>
       </c>
       <c r="H457" s="8">
-        <v>16789</v>
+        <v>16792</v>
       </c>
       <c r="I457" s="8">
-        <v>10425</v>
+        <v>10400</v>
       </c>
       <c r="J457" s="8">
-        <v>10615</v>
+        <v>10590</v>
       </c>
       <c r="K457" s="8">
-        <v>5213</v>
+        <v>5249</v>
       </c>
       <c r="L457" s="8">
-        <v>5377</v>
+        <v>5413</v>
       </c>
       <c r="M457" s="8">
-        <v>15638</v>
+        <v>15649</v>
       </c>
       <c r="N457" s="8">
         <v>354</v>
       </c>
       <c r="O457" s="8">
-        <v>15992</v>
+        <v>16003</v>
       </c>
       <c r="P457" s="8"/>
       <c r="Q457" s="8"/>
@@ -68746,46 +68928,46 @@
         <v>44105</v>
       </c>
       <c r="B458" s="8">
-        <v>11810</v>
+        <v>11793</v>
       </c>
       <c r="C458" s="8">
-        <v>12011</v>
+        <v>11994</v>
       </c>
       <c r="D458" s="8">
-        <v>6068</v>
+        <v>6089</v>
       </c>
       <c r="E458" s="8">
-        <v>6192</v>
+        <v>6213</v>
       </c>
       <c r="F458" s="8">
-        <v>17878</v>
+        <v>17882</v>
       </c>
       <c r="G458" s="8">
         <v>325</v>
       </c>
       <c r="H458" s="8">
-        <v>18203</v>
+        <v>18207</v>
       </c>
       <c r="I458" s="8">
-        <v>11201</v>
+        <v>11185</v>
       </c>
       <c r="J458" s="8">
-        <v>11404</v>
+        <v>11388</v>
       </c>
       <c r="K458" s="8">
-        <v>5775</v>
+        <v>5789</v>
       </c>
       <c r="L458" s="8">
-        <v>5899</v>
+        <v>5913</v>
       </c>
       <c r="M458" s="8">
-        <v>16976</v>
+        <v>16974</v>
       </c>
       <c r="N458" s="8">
         <v>327</v>
       </c>
       <c r="O458" s="8">
-        <v>17303</v>
+        <v>17301</v>
       </c>
       <c r="P458" s="8"/>
       <c r="Q458" s="8"/>
@@ -68800,46 +68982,46 @@
         <v>44136</v>
       </c>
       <c r="B459" s="8">
-        <v>12146</v>
+        <v>12142</v>
       </c>
       <c r="C459" s="8">
-        <v>12292</v>
+        <v>12288</v>
       </c>
       <c r="D459" s="8">
-        <v>5746</v>
+        <v>5752</v>
       </c>
       <c r="E459" s="8">
-        <v>5933</v>
+        <v>5939</v>
       </c>
       <c r="F459" s="8">
-        <v>17892</v>
+        <v>17894</v>
       </c>
       <c r="G459" s="8">
         <v>333</v>
       </c>
       <c r="H459" s="8">
-        <v>18225</v>
+        <v>18227</v>
       </c>
       <c r="I459" s="8">
-        <v>11855</v>
+        <v>11851</v>
       </c>
       <c r="J459" s="8">
-        <v>12014</v>
+        <v>12010</v>
       </c>
       <c r="K459" s="8">
-        <v>5629</v>
+        <v>5639</v>
       </c>
       <c r="L459" s="8">
-        <v>5816</v>
+        <v>5826</v>
       </c>
       <c r="M459" s="8">
-        <v>17484</v>
+        <v>17490</v>
       </c>
       <c r="N459" s="8">
         <v>346</v>
       </c>
       <c r="O459" s="8">
-        <v>17830</v>
+        <v>17836</v>
       </c>
       <c r="P459" s="8"/>
       <c r="Q459" s="8"/>
@@ -68854,46 +69036,46 @@
         <v>44166</v>
       </c>
       <c r="B460" s="8">
-        <v>11902</v>
+        <v>11921</v>
       </c>
       <c r="C460" s="8">
-        <v>12032</v>
+        <v>12051</v>
       </c>
       <c r="D460" s="8">
-        <v>5152</v>
+        <v>5336</v>
       </c>
       <c r="E460" s="8">
-        <v>5258</v>
+        <v>5442</v>
       </c>
       <c r="F460" s="8">
-        <v>17054</v>
+        <v>17257</v>
       </c>
       <c r="G460" s="8">
         <v>236</v>
       </c>
       <c r="H460" s="8">
-        <v>17290</v>
+        <v>17493</v>
       </c>
       <c r="I460" s="8">
-        <v>13279</v>
+        <v>13300</v>
       </c>
       <c r="J460" s="8">
-        <v>13414</v>
+        <v>13435</v>
       </c>
       <c r="K460" s="8">
-        <v>5616</v>
+        <v>5810</v>
       </c>
       <c r="L460" s="8">
-        <v>5722</v>
+        <v>5916</v>
       </c>
       <c r="M460" s="8">
-        <v>18895</v>
+        <v>19110</v>
       </c>
       <c r="N460" s="8">
         <v>241</v>
       </c>
       <c r="O460" s="8">
-        <v>19136</v>
+        <v>19351</v>
       </c>
       <c r="P460" s="8"/>
       <c r="Q460" s="8"/>
@@ -68908,46 +69090,46 @@
         <v>44197</v>
       </c>
       <c r="B461" s="8">
-        <v>9121</v>
+        <v>9100</v>
       </c>
       <c r="C461" s="8">
-        <v>9312</v>
+        <v>9291</v>
       </c>
       <c r="D461" s="8">
-        <v>3859</v>
+        <v>3883</v>
       </c>
       <c r="E461" s="8">
-        <v>3963</v>
+        <v>3987</v>
       </c>
       <c r="F461" s="8">
-        <v>12980</v>
+        <v>12983</v>
       </c>
       <c r="G461" s="8">
         <v>295</v>
       </c>
       <c r="H461" s="8">
-        <v>13275</v>
+        <v>13278</v>
       </c>
       <c r="I461" s="8">
-        <v>12282</v>
+        <v>12254</v>
       </c>
       <c r="J461" s="8">
-        <v>12534</v>
+        <v>12506</v>
       </c>
       <c r="K461" s="8">
-        <v>4383</v>
+        <v>4393</v>
       </c>
       <c r="L461" s="8">
-        <v>4487</v>
+        <v>4497</v>
       </c>
       <c r="M461" s="8">
-        <v>16665</v>
+        <v>16647</v>
       </c>
       <c r="N461" s="8">
         <v>356</v>
       </c>
       <c r="O461" s="8">
-        <v>17021</v>
+        <v>17002</v>
       </c>
       <c r="P461" s="8"/>
       <c r="Q461" s="8"/>
@@ -68962,46 +69144,46 @@
         <v>44228</v>
       </c>
       <c r="B462" s="8">
-        <v>14000</v>
+        <v>13989</v>
       </c>
       <c r="C462" s="8">
-        <v>14134</v>
+        <v>14123</v>
       </c>
       <c r="D462" s="8">
-        <v>5430</v>
+        <v>5444</v>
       </c>
       <c r="E462" s="8">
-        <v>5712</v>
+        <v>5726</v>
       </c>
       <c r="F462" s="8">
-        <v>19430</v>
+        <v>19433</v>
       </c>
       <c r="G462" s="8">
         <v>416</v>
       </c>
       <c r="H462" s="8">
-        <v>19846</v>
+        <v>19849</v>
       </c>
       <c r="I462" s="8">
-        <v>14106</v>
+        <v>14095</v>
       </c>
       <c r="J462" s="8">
-        <v>14241</v>
+        <v>14230</v>
       </c>
       <c r="K462" s="8">
-        <v>5725</v>
+        <v>5738</v>
       </c>
       <c r="L462" s="8">
-        <v>6007</v>
+        <v>6020</v>
       </c>
       <c r="M462" s="8">
-        <v>19831</v>
+        <v>19834</v>
       </c>
       <c r="N462" s="8">
         <v>417</v>
       </c>
       <c r="O462" s="8">
-        <v>20248</v>
+        <v>20250</v>
       </c>
       <c r="P462" s="8"/>
       <c r="Q462" s="8"/>
@@ -69016,46 +69198,46 @@
         <v>44256</v>
       </c>
       <c r="B463" s="8">
-        <v>16042</v>
+        <v>16026</v>
       </c>
       <c r="C463" s="8">
-        <v>16314</v>
+        <v>16298</v>
       </c>
       <c r="D463" s="8">
-        <v>8570</v>
+        <v>8589</v>
       </c>
       <c r="E463" s="8">
-        <v>8776</v>
+        <v>8795</v>
       </c>
       <c r="F463" s="8">
-        <v>24612</v>
+        <v>24615</v>
       </c>
       <c r="G463" s="8">
         <v>478</v>
       </c>
       <c r="H463" s="8">
-        <v>25090</v>
+        <v>25093</v>
       </c>
       <c r="I463" s="8">
-        <v>14663</v>
+        <v>14648</v>
       </c>
       <c r="J463" s="8">
-        <v>14921</v>
+        <v>14907</v>
       </c>
       <c r="K463" s="8">
-        <v>8449</v>
+        <v>8477</v>
       </c>
       <c r="L463" s="8">
-        <v>8655</v>
+        <v>8683</v>
       </c>
       <c r="M463" s="8">
-        <v>23112</v>
+        <v>23125</v>
       </c>
       <c r="N463" s="8">
         <v>465</v>
       </c>
       <c r="O463" s="8">
-        <v>23577</v>
+        <v>23589</v>
       </c>
       <c r="P463" s="8"/>
       <c r="Q463" s="8"/>
@@ -69070,46 +69252,46 @@
         <v>44287</v>
       </c>
       <c r="B464" s="8">
-        <v>14020</v>
+        <v>13969</v>
       </c>
       <c r="C464" s="8">
-        <v>14105</v>
+        <v>14054</v>
       </c>
       <c r="D464" s="8">
-        <v>7071</v>
+        <v>7117</v>
       </c>
       <c r="E464" s="8">
-        <v>7225</v>
+        <v>7271</v>
       </c>
       <c r="F464" s="8">
-        <v>21091</v>
+        <v>21086</v>
       </c>
       <c r="G464" s="8">
         <v>239</v>
       </c>
       <c r="H464" s="8">
-        <v>21330</v>
+        <v>21325</v>
       </c>
       <c r="I464" s="8">
-        <v>15254</v>
+        <v>15199</v>
       </c>
       <c r="J464" s="8">
-        <v>15359</v>
+        <v>15304</v>
       </c>
       <c r="K464" s="8">
-        <v>6548</v>
+        <v>6592</v>
       </c>
       <c r="L464" s="8">
-        <v>6702</v>
+        <v>6746</v>
       </c>
       <c r="M464" s="8">
-        <v>21803</v>
+        <v>21791</v>
       </c>
       <c r="N464" s="8">
         <v>259</v>
       </c>
       <c r="O464" s="8">
-        <v>22062</v>
+        <v>22050</v>
       </c>
       <c r="P464" s="8"/>
       <c r="Q464" s="8"/>
@@ -69124,46 +69306,46 @@
         <v>44317</v>
       </c>
       <c r="B465" s="8">
-        <v>14095</v>
+        <v>14064</v>
       </c>
       <c r="C465" s="8">
-        <v>14223</v>
+        <v>14192</v>
       </c>
       <c r="D465" s="8">
-        <v>6929</v>
+        <v>6955</v>
       </c>
       <c r="E465" s="8">
-        <v>7077</v>
+        <v>7103</v>
       </c>
       <c r="F465" s="8">
-        <v>21024</v>
+        <v>21019</v>
       </c>
       <c r="G465" s="8">
         <v>276</v>
       </c>
       <c r="H465" s="8">
-        <v>21300</v>
+        <v>21295</v>
       </c>
       <c r="I465" s="8">
-        <v>13713</v>
+        <v>13683</v>
       </c>
       <c r="J465" s="8">
-        <v>13826</v>
+        <v>13796</v>
       </c>
       <c r="K465" s="8">
-        <v>6534</v>
+        <v>6552</v>
       </c>
       <c r="L465" s="8">
-        <v>6682</v>
+        <v>6700</v>
       </c>
       <c r="M465" s="8">
-        <v>20247</v>
+        <v>20235</v>
       </c>
       <c r="N465" s="8">
         <v>260</v>
       </c>
       <c r="O465" s="8">
-        <v>20508</v>
+        <v>20496</v>
       </c>
       <c r="P465" s="8"/>
       <c r="Q465" s="8"/>
@@ -69178,46 +69360,46 @@
         <v>44348</v>
       </c>
       <c r="B466" s="8">
-        <v>13370</v>
+        <v>13332</v>
       </c>
       <c r="C466" s="8">
-        <v>13502</v>
+        <v>13464</v>
       </c>
       <c r="D466" s="8">
-        <v>6380</v>
+        <v>6426</v>
       </c>
       <c r="E466" s="8">
-        <v>6679</v>
+        <v>6725</v>
       </c>
       <c r="F466" s="8">
-        <v>19750</v>
+        <v>19758</v>
       </c>
       <c r="G466" s="8">
         <v>431</v>
       </c>
       <c r="H466" s="8">
-        <v>20181</v>
+        <v>20189</v>
       </c>
       <c r="I466" s="8">
-        <v>12360</v>
+        <v>12325</v>
       </c>
       <c r="J466" s="8">
-        <v>12455</v>
+        <v>12420</v>
       </c>
       <c r="K466" s="8">
-        <v>6703</v>
+        <v>6764</v>
       </c>
       <c r="L466" s="8">
-        <v>7002</v>
+        <v>7063</v>
       </c>
       <c r="M466" s="8">
-        <v>19062</v>
+        <v>19088</v>
       </c>
       <c r="N466" s="8">
         <v>394</v>
       </c>
       <c r="O466" s="8">
-        <v>19457</v>
+        <v>19482</v>
       </c>
       <c r="P466" s="8"/>
       <c r="Q466" s="8"/>
@@ -69232,46 +69414,46 @@
         <v>44378</v>
       </c>
       <c r="B467" s="8">
-        <v>12309</v>
+        <v>12362</v>
       </c>
       <c r="C467" s="8">
-        <v>12413</v>
+        <v>12466</v>
       </c>
       <c r="D467" s="8">
-        <v>6458</v>
+        <v>6488</v>
       </c>
       <c r="E467" s="8">
-        <v>6642</v>
+        <v>6672</v>
       </c>
       <c r="F467" s="8">
-        <v>18767</v>
+        <v>18850</v>
       </c>
       <c r="G467" s="8">
         <v>288</v>
       </c>
       <c r="H467" s="8">
-        <v>19055</v>
+        <v>19138</v>
       </c>
       <c r="I467" s="8">
-        <v>11702</v>
+        <v>11752</v>
       </c>
       <c r="J467" s="8">
-        <v>11806</v>
+        <v>11856</v>
       </c>
       <c r="K467" s="8">
-        <v>5946</v>
+        <v>5964</v>
       </c>
       <c r="L467" s="8">
-        <v>6130</v>
+        <v>6148</v>
       </c>
       <c r="M467" s="8">
-        <v>17648</v>
+        <v>17717</v>
       </c>
       <c r="N467" s="8">
         <v>288</v>
       </c>
       <c r="O467" s="8">
-        <v>17936</v>
+        <v>18005</v>
       </c>
       <c r="P467" s="8"/>
       <c r="Q467" s="8"/>
@@ -69286,46 +69468,46 @@
         <v>44409</v>
       </c>
       <c r="B468" s="8">
-        <v>12690</v>
+        <v>12644</v>
       </c>
       <c r="C468" s="8">
-        <v>12842</v>
+        <v>12796</v>
       </c>
       <c r="D468" s="8">
-        <v>6607</v>
+        <v>6675</v>
       </c>
       <c r="E468" s="8">
-        <v>6716</v>
+        <v>6784</v>
       </c>
       <c r="F468" s="8">
-        <v>19297</v>
+        <v>19319</v>
       </c>
       <c r="G468" s="8">
         <v>261</v>
       </c>
       <c r="H468" s="8">
-        <v>19558</v>
+        <v>19580</v>
       </c>
       <c r="I468" s="8">
-        <v>12250</v>
+        <v>12205</v>
       </c>
       <c r="J468" s="8">
-        <v>12417</v>
+        <v>12373</v>
       </c>
       <c r="K468" s="8">
-        <v>6686</v>
+        <v>6761</v>
       </c>
       <c r="L468" s="8">
-        <v>6795</v>
+        <v>6870</v>
       </c>
       <c r="M468" s="8">
-        <v>18936</v>
+        <v>18967</v>
       </c>
       <c r="N468" s="8">
         <v>277</v>
       </c>
       <c r="O468" s="8">
-        <v>19212</v>
+        <v>19243</v>
       </c>
       <c r="P468" s="8"/>
       <c r="Q468" s="8"/>
@@ -69340,46 +69522,46 @@
         <v>44440</v>
       </c>
       <c r="B469" s="8">
-        <v>11171</v>
+        <v>11140</v>
       </c>
       <c r="C469" s="8">
-        <v>11252</v>
+        <v>11221</v>
       </c>
       <c r="D469" s="8">
-        <v>7934</v>
+        <v>8217</v>
       </c>
       <c r="E469" s="8">
-        <v>8049</v>
+        <v>8332</v>
       </c>
       <c r="F469" s="8">
-        <v>19105</v>
+        <v>19357</v>
       </c>
       <c r="G469" s="8">
         <v>196</v>
       </c>
       <c r="H469" s="8">
-        <v>19301</v>
+        <v>19553</v>
       </c>
       <c r="I469" s="8">
-        <v>10548</v>
+        <v>10518</v>
       </c>
       <c r="J469" s="8">
-        <v>10626</v>
+        <v>10597</v>
       </c>
       <c r="K469" s="8">
-        <v>7904</v>
+        <v>8197</v>
       </c>
       <c r="L469" s="8">
-        <v>8019</v>
+        <v>8312</v>
       </c>
       <c r="M469" s="8">
-        <v>18452</v>
+        <v>18716</v>
       </c>
       <c r="N469" s="8">
         <v>194</v>
       </c>
       <c r="O469" s="8">
-        <v>18645</v>
+        <v>18909</v>
       </c>
       <c r="P469" s="8"/>
       <c r="Q469" s="8"/>
@@ -69394,46 +69576,46 @@
         <v>44470</v>
       </c>
       <c r="B470" s="8">
-        <v>11005</v>
+        <v>11008</v>
       </c>
       <c r="C470" s="8">
-        <v>11118</v>
+        <v>11122</v>
       </c>
       <c r="D470" s="8">
-        <v>5099</v>
+        <v>5160</v>
       </c>
       <c r="E470" s="8">
-        <v>5301</v>
+        <v>5362</v>
       </c>
       <c r="F470" s="8">
-        <v>16104</v>
+        <v>16168</v>
       </c>
       <c r="G470" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H470" s="8">
-        <v>16419</v>
+        <v>16484</v>
       </c>
       <c r="I470" s="8">
-        <v>10855</v>
+        <v>10858</v>
       </c>
       <c r="J470" s="8">
-        <v>10963</v>
+        <v>10967</v>
       </c>
       <c r="K470" s="8">
-        <v>4930</v>
+        <v>4981</v>
       </c>
       <c r="L470" s="8">
-        <v>5132</v>
+        <v>5183</v>
       </c>
       <c r="M470" s="8">
-        <v>15785</v>
+        <v>15839</v>
       </c>
       <c r="N470" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O470" s="8">
-        <v>16095</v>
+        <v>16150</v>
       </c>
       <c r="P470" s="8"/>
       <c r="Q470" s="8"/>
@@ -69448,46 +69630,46 @@
         <v>44501</v>
       </c>
       <c r="B471" s="8">
-        <v>11381</v>
+        <v>11384</v>
       </c>
       <c r="C471" s="8">
-        <v>11500</v>
+        <v>11503</v>
       </c>
       <c r="D471" s="8">
-        <v>5447</v>
+        <v>5479</v>
       </c>
       <c r="E471" s="8">
-        <v>5542</v>
+        <v>5570</v>
       </c>
       <c r="F471" s="8">
-        <v>16828</v>
+        <v>16863</v>
       </c>
       <c r="G471" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H471" s="8">
-        <v>17042</v>
+        <v>17073</v>
       </c>
       <c r="I471" s="8">
-        <v>10585</v>
+        <v>10588</v>
       </c>
       <c r="J471" s="8">
-        <v>10719</v>
+        <v>10722</v>
       </c>
       <c r="K471" s="8">
-        <v>5466</v>
+        <v>5502</v>
       </c>
       <c r="L471" s="8">
-        <v>5561</v>
+        <v>5593</v>
       </c>
       <c r="M471" s="8">
-        <v>16052</v>
+        <v>16091</v>
       </c>
       <c r="N471" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O471" s="8">
-        <v>16281</v>
+        <v>16316</v>
       </c>
       <c r="P471" s="8"/>
       <c r="Q471" s="8"/>
@@ -69502,46 +69684,46 @@
         <v>44531</v>
       </c>
       <c r="B472" s="8">
-        <v>9193</v>
+        <v>9036</v>
       </c>
       <c r="C472" s="8">
-        <v>9364</v>
+        <v>9208</v>
       </c>
       <c r="D472" s="8">
-        <v>6795</v>
+        <v>6858</v>
       </c>
       <c r="E472" s="8">
-        <v>6867</v>
+        <v>6930</v>
       </c>
       <c r="F472" s="8">
-        <v>15988</v>
+        <v>15894</v>
       </c>
       <c r="G472" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H472" s="8">
-        <v>16231</v>
+        <v>16138</v>
       </c>
       <c r="I472" s="8">
-        <v>10495</v>
+        <v>10316</v>
       </c>
       <c r="J472" s="8">
-        <v>10672</v>
+        <v>10494</v>
       </c>
       <c r="K472" s="8">
-        <v>7104</v>
+        <v>7170</v>
       </c>
       <c r="L472" s="8">
-        <v>7176</v>
+        <v>7242</v>
       </c>
       <c r="M472" s="8">
-        <v>17599</v>
+        <v>17486</v>
       </c>
       <c r="N472" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O472" s="8">
-        <v>17848</v>
+        <v>17736</v>
       </c>
       <c r="P472" s="8"/>
       <c r="Q472" s="8"/>
@@ -69556,46 +69738,46 @@
         <v>44562</v>
       </c>
       <c r="B473" s="8">
-        <v>6475</v>
+        <v>6646</v>
       </c>
       <c r="C473" s="8">
-        <v>6598</v>
+        <v>6769</v>
       </c>
       <c r="D473" s="8">
-        <v>3434</v>
+        <v>3574</v>
       </c>
       <c r="E473" s="8">
-        <v>3472</v>
+        <v>3612</v>
       </c>
       <c r="F473" s="8">
-        <v>9909</v>
+        <v>10220</v>
       </c>
       <c r="G473" s="8">
         <v>161</v>
       </c>
       <c r="H473" s="8">
-        <v>10070</v>
+        <v>10381</v>
       </c>
       <c r="I473" s="8">
-        <v>8788</v>
+        <v>9020</v>
       </c>
       <c r="J473" s="8">
-        <v>8948</v>
+        <v>9180</v>
       </c>
       <c r="K473" s="8">
-        <v>4029</v>
+        <v>4160</v>
       </c>
       <c r="L473" s="8">
-        <v>4067</v>
+        <v>4198</v>
       </c>
       <c r="M473" s="8">
-        <v>12817</v>
+        <v>13180</v>
       </c>
       <c r="N473" s="8">
         <v>198</v>
       </c>
       <c r="O473" s="8">
-        <v>13015</v>
+        <v>13378</v>
       </c>
       <c r="P473" s="8"/>
       <c r="Q473" s="8"/>
@@ -69610,46 +69792,46 @@
         <v>44593</v>
       </c>
       <c r="B474" s="8">
-        <v>10178</v>
+        <v>10374</v>
       </c>
       <c r="C474" s="8">
-        <v>10278</v>
+        <v>10486</v>
       </c>
       <c r="D474" s="8">
-        <v>6824</v>
+        <v>6856</v>
       </c>
       <c r="E474" s="8">
-        <v>7972</v>
+        <v>8008</v>
       </c>
       <c r="F474" s="8">
-        <v>17002</v>
+        <v>17230</v>
       </c>
       <c r="G474" s="8">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="H474" s="8">
-        <v>18250</v>
+        <v>18494</v>
       </c>
       <c r="I474" s="8">
-        <v>10240</v>
+        <v>10438</v>
       </c>
       <c r="J474" s="8">
-        <v>10344</v>
+        <v>10554</v>
       </c>
       <c r="K474" s="8">
-        <v>7183</v>
+        <v>7216</v>
       </c>
       <c r="L474" s="8">
-        <v>8331</v>
+        <v>8368</v>
       </c>
       <c r="M474" s="8">
-        <v>17423</v>
+        <v>17654</v>
       </c>
       <c r="N474" s="8">
-        <v>1252</v>
+        <v>1268</v>
       </c>
       <c r="O474" s="8">
-        <v>18675</v>
+        <v>18922</v>
       </c>
       <c r="P474" s="8"/>
       <c r="Q474" s="8"/>
@@ -69658,6 +69840,114 @@
       <c r="T474" s="8"/>
       <c r="U474" s="8"/>
       <c r="V474" s="8"/>
+    </row>
+    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A475" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B475" s="8">
+        <v>11338</v>
+      </c>
+      <c r="C475" s="8">
+        <v>11432</v>
+      </c>
+      <c r="D475" s="8">
+        <v>4947</v>
+      </c>
+      <c r="E475" s="8">
+        <v>5106</v>
+      </c>
+      <c r="F475" s="8">
+        <v>16285</v>
+      </c>
+      <c r="G475" s="8">
+        <v>253</v>
+      </c>
+      <c r="H475" s="8">
+        <v>16538</v>
+      </c>
+      <c r="I475" s="8">
+        <v>10029</v>
+      </c>
+      <c r="J475" s="8">
+        <v>10117</v>
+      </c>
+      <c r="K475" s="8">
+        <v>5006</v>
+      </c>
+      <c r="L475" s="8">
+        <v>5165</v>
+      </c>
+      <c r="M475" s="8">
+        <v>15034</v>
+      </c>
+      <c r="N475" s="8">
+        <v>247</v>
+      </c>
+      <c r="O475" s="8">
+        <v>15281</v>
+      </c>
+      <c r="P475" s="8"/>
+      <c r="Q475" s="8"/>
+      <c r="R475" s="8"/>
+      <c r="S475" s="8"/>
+      <c r="T475" s="8"/>
+      <c r="U475" s="8"/>
+      <c r="V475" s="8"/>
+    </row>
+    <row r="476" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A476" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B476" s="8">
+        <v>8871</v>
+      </c>
+      <c r="C476" s="8">
+        <v>8932</v>
+      </c>
+      <c r="D476" s="8">
+        <v>5040</v>
+      </c>
+      <c r="E476" s="8">
+        <v>5094</v>
+      </c>
+      <c r="F476" s="8">
+        <v>13911</v>
+      </c>
+      <c r="G476" s="8">
+        <v>115</v>
+      </c>
+      <c r="H476" s="8">
+        <v>14026</v>
+      </c>
+      <c r="I476" s="8">
+        <v>10077</v>
+      </c>
+      <c r="J476" s="8">
+        <v>10154</v>
+      </c>
+      <c r="K476" s="8">
+        <v>4701</v>
+      </c>
+      <c r="L476" s="8">
+        <v>4755</v>
+      </c>
+      <c r="M476" s="8">
+        <v>14778</v>
+      </c>
+      <c r="N476" s="8">
+        <v>130</v>
+      </c>
+      <c r="O476" s="8">
+        <v>14908</v>
+      </c>
+      <c r="P476" s="8"/>
+      <c r="Q476" s="8"/>
+      <c r="R476" s="8"/>
+      <c r="S476" s="8"/>
+      <c r="T476" s="8"/>
+      <c r="U476" s="8"/>
+      <c r="V476" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
